--- a/biology/Botanique/Behniaceae/Behniaceae.xlsx
+++ b/biology/Botanique/Behniaceae/Behniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Behniacées est une famille de plantes monocotylédones.
 Elle comprend une seule espèce Behnia reticulata.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Behnia, donné en 1855 par le botaniste danois D. Didrichsen en hommage au zoologiste allemand Wilhelm Friedrich Georg Behn (en)[2], qui l'accompagna en 1845-1847, lors du tour du monde scientifique à bord du navire danois la « Galathea ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Behnia, donné en 1855 par le botaniste danois D. Didrichsen en hommage au zoologiste allemand Wilhelm Friedrich Georg Behn (en), qui l'accompagna en 1845-1847, lors du tour du monde scientifique à bord du navire danois la « Galathea ».
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille n'est pas acceptée par la plupart des botanistes.
-Cette famille n'existe pas en classification classique de Cronquist (1981)[3].
-La classification phylogénétique APG (1998)[4] accepte cette famille et la situe dans l'ordre des Asparagales.
+Cette famille n'existe pas en classification classique de Cronquist (1981).
+La classification phylogénétique APG (1998) accepte cette famille et la situe dans l'ordre des Asparagales.
 Mais la classification phylogénétique APG II (2003) incorpore cette famille à celle des Agavacées ou Asparagacées.
-En classification phylogénétique APG III (2009)[5] cette famille est invalide et cette espèce est incorporée dans la famille Asparagaceae, sous-famille Agavoideae.
+En classification phylogénétique APG III (2009) cette famille est invalide et cette espèce est incorporée dans la famille Asparagaceae, sous-famille Agavoideae.
 </t>
         </is>
       </c>
